--- a/choucair/src/test/resources/dataTestCase.xlsx
+++ b/choucair/src/test/resources/dataTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datalogin" sheetId="4" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
